--- a/docs/Excel/danhsach1.xlsx
+++ b/docs/Excel/danhsach1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\FinalProject\docs\document\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\htdocs\Do_an\docs\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -573,7 +573,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -596,14 +596,8 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -613,12 +607,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -664,7 +652,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -683,14 +671,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -974,17 +955,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L52"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.85546875" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
     <col min="5" max="5" width="21.42578125" customWidth="1"/>
     <col min="6" max="6" width="18.7109375" customWidth="1"/>
     <col min="7" max="7" width="20.7109375" customWidth="1"/>
@@ -994,1641 +976,1537 @@
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B1" s="10"/>
-    </row>
-    <row r="2" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="12"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="11" t="s">
+    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="B1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="C1" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" s="7" t="s">
+      <c r="G1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="7" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="10"/>
-      <c r="D3" s="9">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="3">
+      <c r="C2" s="3">
         <v>39449</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="J3" s="6" t="s">
+      <c r="F2" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="L3" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="9">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="H2" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I2" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="3">
+      <c r="C3" s="3">
         <v>39450</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="J4" s="6" t="s">
+      <c r="F3" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="L4" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="9">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="H3" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I3" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="3">
+      <c r="C4" s="3">
         <v>39451</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="J5" s="6" t="s">
+      <c r="F4" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="L5" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="9">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="H4" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I4" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="3">
+      <c r="C5" s="3">
         <v>39452</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="J6" s="6" t="s">
+      <c r="F5" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="L6" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="9">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="H5" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I5" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="3">
+      <c r="C6" s="3">
         <v>39453</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="J7" s="6" t="s">
+      <c r="F6" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="L7" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="9">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="H6" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I6" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="3">
+      <c r="C7" s="3">
         <v>39454</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="J8" s="6" t="s">
+      <c r="F7" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="L8" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="9">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1" t="s">
+      <c r="H7" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I7" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="3">
+      <c r="C8" s="3">
         <v>39455</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="J9" s="6" t="s">
+      <c r="F8" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="K9" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="L9" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="9">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="H8" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I8" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="3">
+      <c r="C9" s="3">
         <v>39456</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="J10" s="6" t="s">
+      <c r="F9" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="K10" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="L10" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="9">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1" t="s">
+      <c r="H9" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I9" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="3">
+      <c r="C10" s="3">
         <v>39457</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="J11" s="6" t="s">
+      <c r="F10" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="K11" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="L11" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="9">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1" t="s">
+      <c r="H10" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I10" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="3">
+      <c r="C11" s="3">
         <v>39458</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="J12" s="6" t="s">
+      <c r="F11" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G11" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="K12" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="L12" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="9">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1" t="s">
+      <c r="H11" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I11" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="3">
+      <c r="C12" s="3">
         <v>39459</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="J13" s="6" t="s">
+      <c r="F12" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G12" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="K13" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="L13" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="9">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1" t="s">
+      <c r="H12" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I12" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="3">
+      <c r="C13" s="3">
         <v>39460</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="J14" s="6" t="s">
+      <c r="F13" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G13" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="K14" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="L14" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="9">
-        <v>1</v>
-      </c>
-      <c r="E15" s="1" t="s">
+      <c r="H13" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I13" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="3">
+      <c r="C14" s="3">
         <v>39461</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="J15" s="6" t="s">
+      <c r="F14" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="K15" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="L15" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="9">
-        <v>1</v>
-      </c>
-      <c r="E16" s="1" t="s">
+      <c r="H14" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I14" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="3">
+      <c r="C15" s="3">
         <v>39462</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="I16" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="J16" s="6" t="s">
+      <c r="F15" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G15" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="K16" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="L16" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="9">
-        <v>1</v>
-      </c>
-      <c r="E17" s="1" t="s">
+      <c r="H15" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I15" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>1</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="3">
+      <c r="C16" s="3">
         <v>39463</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="I17" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="J17" s="6" t="s">
+      <c r="F16" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G16" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="K17" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="L17" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="9">
-        <v>1</v>
-      </c>
-      <c r="E18" s="1" t="s">
+      <c r="H16" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I16" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>1</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="3">
+      <c r="C17" s="3">
         <v>39464</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="I18" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="J18" s="6" t="s">
+      <c r="F17" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G17" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="K18" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="L18" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="9">
-        <v>1</v>
-      </c>
-      <c r="E19" s="1" t="s">
+      <c r="H17" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I17" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>1</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="3">
+      <c r="C18" s="3">
         <v>39465</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="I19" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="J19" s="6" t="s">
+      <c r="F18" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G18" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="K19" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="L19" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="9">
-        <v>1</v>
-      </c>
-      <c r="E20" s="1" t="s">
+      <c r="H18" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I18" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
+        <v>1</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F20" s="3">
+      <c r="C19" s="3">
         <v>39466</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="I20" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="J20" s="6" t="s">
+      <c r="F19" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G19" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="K20" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="L20" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="9">
-        <v>1</v>
-      </c>
-      <c r="E21" s="1" t="s">
+      <c r="H19" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I19" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <v>1</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F21" s="3">
+      <c r="C20" s="3">
         <v>39467</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="I21" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="J21" s="6" t="s">
+      <c r="F20" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G20" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="K21" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="L21" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="9">
-        <v>1</v>
-      </c>
-      <c r="E22" s="1" t="s">
+      <c r="H20" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I20" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
+        <v>1</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F22" s="3">
+      <c r="C21" s="3">
         <v>39468</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I22" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="J22" s="6" t="s">
+      <c r="F21" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G21" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="K22" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="L22" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="9">
-        <v>1</v>
-      </c>
-      <c r="E23" s="1" t="s">
+      <c r="H21" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I21" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
+        <v>1</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F23" s="3">
+      <c r="C22" s="3">
         <v>39469</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I23" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="J23" s="6" t="s">
+      <c r="F22" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G22" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="K23" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="L23" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="9">
-        <v>1</v>
-      </c>
-      <c r="E24" s="1" t="s">
+      <c r="H22" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I22" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
+        <v>1</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="3">
+      <c r="C23" s="3">
         <v>39470</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I24" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="J24" s="6" t="s">
+      <c r="F23" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G23" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="K24" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="L24" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="9">
-        <v>1</v>
-      </c>
-      <c r="E25" s="1" t="s">
+      <c r="H23" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I23" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
+        <v>1</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F25" s="3">
+      <c r="C24" s="3">
         <v>39471</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="I25" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="J25" s="6" t="s">
+      <c r="F24" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G24" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="K25" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="L25" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="9">
-        <v>1</v>
-      </c>
-      <c r="E26" s="1" t="s">
+      <c r="H24" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I24" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
+        <v>1</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F26" s="3">
+      <c r="C25" s="3">
         <v>39472</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="E25" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="I26" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="J26" s="6" t="s">
+      <c r="F25" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G25" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="K26" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="L26" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="9">
-        <v>1</v>
-      </c>
-      <c r="E27" s="1" t="s">
+      <c r="H25" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I25" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
+        <v>1</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F27" s="3">
+      <c r="C26" s="3">
         <v>39473</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="E26" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="I27" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="J27" s="6" t="s">
+      <c r="F26" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G26" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="K27" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="L27" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="9">
-        <v>1</v>
-      </c>
-      <c r="E28" s="1" t="s">
+      <c r="H26" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I26" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="9">
+        <v>1</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F28" s="3">
+      <c r="C27" s="3">
         <v>39474</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="E27" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="I28" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="J28" s="6" t="s">
+      <c r="F27" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G27" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="K28" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="L28" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="9">
-        <v>1</v>
-      </c>
-      <c r="E29" s="1" t="s">
+      <c r="H27" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I27" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="9">
+        <v>1</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F29" s="3">
+      <c r="C28" s="3">
         <v>39475</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H29" s="2" t="s">
+      <c r="E28" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="I29" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="J29" s="6" t="s">
+      <c r="F28" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G28" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="K29" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="L29" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="9">
-        <v>1</v>
-      </c>
-      <c r="E30" s="1" t="s">
+      <c r="H28" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I28" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="9">
+        <v>1</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F30" s="3">
+      <c r="C29" s="3">
         <v>39476</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H30" s="2" t="s">
+      <c r="E29" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="I30" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="J30" s="6" t="s">
+      <c r="F29" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G29" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="K30" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="L30" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="9">
-        <v>1</v>
-      </c>
-      <c r="E31" s="2" t="s">
+      <c r="H29" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I29" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="9">
+        <v>1</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="F31" s="3">
+      <c r="C30" s="3">
         <v>39477</v>
       </c>
-      <c r="G31" s="4" t="s">
+      <c r="D30" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="H31" s="5" t="s">
+      <c r="E30" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="I31" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="J31" s="6" t="s">
+      <c r="F30" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G30" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="K31" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="L31" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="9">
-        <v>1</v>
-      </c>
-      <c r="E32" s="2" t="s">
+      <c r="H30" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I30" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="9">
+        <v>1</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F32" s="3">
+      <c r="C31" s="3">
         <v>39478</v>
       </c>
-      <c r="G32" s="4" t="s">
+      <c r="D31" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="H32" s="5" t="s">
+      <c r="E31" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="I32" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="J32" s="6" t="s">
+      <c r="F31" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G31" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="K32" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="L32" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="9">
-        <v>1</v>
-      </c>
-      <c r="E33" s="2" t="s">
+      <c r="H31" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I31" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="9">
+        <v>1</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F33" s="3">
+      <c r="C32" s="3">
         <v>39479</v>
       </c>
-      <c r="G33" s="4" t="s">
+      <c r="D32" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="H33" s="5" t="s">
+      <c r="E32" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="I33" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="J33" s="6" t="s">
+      <c r="F32" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G32" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="K33" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="L33" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="9">
-        <v>1</v>
-      </c>
-      <c r="E34" s="2" t="s">
+      <c r="H32" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I32" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="9">
+        <v>1</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F34" s="3">
+      <c r="C33" s="3">
         <v>39480</v>
       </c>
-      <c r="G34" s="4" t="s">
+      <c r="D33" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="H34" s="5" t="s">
+      <c r="E33" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="I34" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="J34" s="6" t="s">
+      <c r="F33" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G33" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="K34" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="L34" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="9">
-        <v>1</v>
-      </c>
-      <c r="E35" s="2" t="s">
+      <c r="H33" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I33" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="9">
+        <v>1</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F35" s="3">
+      <c r="C34" s="3">
         <v>39481</v>
       </c>
-      <c r="G35" s="4" t="s">
+      <c r="D34" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="H35" s="5" t="s">
+      <c r="E34" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="I35" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="J35" s="6" t="s">
+      <c r="F34" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G34" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="K35" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="L35" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="9">
-        <v>1</v>
-      </c>
-      <c r="E36" s="2" t="s">
+      <c r="H34" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I34" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="9">
+        <v>1</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F36" s="3">
+      <c r="C35" s="3">
         <v>39482</v>
       </c>
-      <c r="G36" s="4" t="s">
+      <c r="D35" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="H36" s="5" t="s">
+      <c r="E35" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="I36" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="J36" s="6" t="s">
+      <c r="F35" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G35" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="K36" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="L36" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="9">
-        <v>1</v>
-      </c>
-      <c r="E37" s="2" t="s">
+      <c r="H35" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I35" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="9">
+        <v>1</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F37" s="3">
+      <c r="C36" s="3">
         <v>39483</v>
       </c>
-      <c r="G37" s="4" t="s">
+      <c r="D36" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H37" s="5" t="s">
+      <c r="E36" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="I37" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="J37" s="6" t="s">
+      <c r="F36" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G36" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="K37" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="L37" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="9">
-        <v>1</v>
-      </c>
-      <c r="E38" s="1" t="s">
+      <c r="H36" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I36" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="9">
+        <v>1</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F38" s="3">
+      <c r="C37" s="3">
         <v>39484</v>
       </c>
-      <c r="G38" s="4" t="s">
+      <c r="D37" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="H38" s="5" t="s">
+      <c r="E37" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="I38" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="J38" s="6" t="s">
+      <c r="F37" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G37" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="K38" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="L38" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="9">
-        <v>1</v>
-      </c>
-      <c r="E39" s="1" t="s">
+      <c r="H37" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I37" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="9">
+        <v>1</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F39" s="3">
+      <c r="C38" s="3">
         <v>39485</v>
       </c>
-      <c r="G39" s="4" t="s">
+      <c r="D38" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="H39" s="5" t="s">
+      <c r="E38" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="I39" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="J39" s="6" t="s">
+      <c r="F38" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G38" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="K39" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="L39" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="9">
-        <v>1</v>
-      </c>
-      <c r="E40" s="1" t="s">
+      <c r="H38" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I38" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="9">
+        <v>1</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F40" s="3">
+      <c r="C39" s="3">
         <v>39486</v>
       </c>
-      <c r="G40" s="4" t="s">
+      <c r="D39" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="H40" s="5" t="s">
+      <c r="E39" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="I40" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="J40" s="6" t="s">
+      <c r="F39" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G39" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="K40" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="L40" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="9">
-        <v>1</v>
-      </c>
-      <c r="E41" s="1" t="s">
+      <c r="H39" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I39" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="9">
+        <v>1</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F41" s="3">
+      <c r="C40" s="3">
         <v>39487</v>
       </c>
-      <c r="G41" s="4" t="s">
+      <c r="D40" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="H41" s="2" t="s">
+      <c r="E40" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I41" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="J41" s="6" t="s">
+      <c r="F40" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G40" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="K41" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="L41" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="9">
-        <v>1</v>
-      </c>
-      <c r="E42" s="1" t="s">
+      <c r="H40" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I40" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="9">
+        <v>1</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F42" s="3">
+      <c r="C41" s="3">
         <v>39488</v>
       </c>
-      <c r="G42" s="4" t="s">
+      <c r="D41" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="H42" s="2" t="s">
+      <c r="E41" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I42" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="J42" s="6" t="s">
+      <c r="F41" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G41" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="K42" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="L42" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="9">
-        <v>1</v>
-      </c>
-      <c r="E43" s="1" t="s">
+      <c r="H41" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I41" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="9">
+        <v>1</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F43" s="3">
+      <c r="C42" s="3">
         <v>39489</v>
       </c>
-      <c r="G43" s="4" t="s">
+      <c r="D42" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="H43" s="2" t="s">
+      <c r="E42" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I43" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="J43" s="6" t="s">
+      <c r="F42" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G42" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="K43" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="L43" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="9">
-        <v>1</v>
+      <c r="H42" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I42" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="9">
+        <v>1</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C43" s="3">
+        <v>39490</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I43" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="9">
+        <v>1</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C44" s="3">
+        <v>39491</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F44" s="3">
-        <v>39490</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="H44" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I44" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="9">
+        <v>1</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I44" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="J44" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="L44" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="9">
-        <v>1</v>
+      <c r="C45" s="3">
+        <v>39492</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F45" s="3">
-        <v>39491</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="H45" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I45" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="9">
+        <v>1</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="I45" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="J45" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="L45" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="9">
-        <v>1</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F46" s="3">
-        <v>39492</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="H46" s="2" t="s">
+      <c r="C46" s="3">
+        <v>39493</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I46" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="9">
+        <v>1</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="I46" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="J46" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="K46" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="L46" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="9">
-        <v>1</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F47" s="3">
-        <v>39493</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="H47" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="J47" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="K47" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="L47" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="9">
-        <v>1</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F48" s="3">
+      <c r="C47" s="3">
         <v>39494</v>
       </c>
-      <c r="G48" s="4" t="s">
+      <c r="D47" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="H48" s="5" t="s">
+      <c r="E47" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="I48" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="J48" s="6" t="s">
+      <c r="F47" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G47" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="K48" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="L48" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="9">
-        <v>1</v>
-      </c>
-      <c r="E49" s="1" t="s">
+      <c r="H47" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I47" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="9">
+        <v>1</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F49" s="3">
+      <c r="C48" s="3">
         <v>39495</v>
       </c>
-      <c r="G49" s="4" t="s">
+      <c r="D48" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="H49" s="5" t="s">
+      <c r="E48" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="I49" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="J49" s="6" t="s">
+      <c r="F48" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G48" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="K49" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="L49" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B50" s="10"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="9">
-        <v>1</v>
-      </c>
-      <c r="E50" s="1" t="s">
+      <c r="H48" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I48" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="9">
+        <v>1</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F50" s="3">
+      <c r="C49" s="3">
         <v>39496</v>
       </c>
-      <c r="G50" s="4" t="s">
+      <c r="D49" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="H50" s="5" t="s">
+      <c r="E49" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="I50" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="J50" s="6" t="s">
+      <c r="F49" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G49" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="K50" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="L50" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="9">
-        <v>1</v>
-      </c>
-      <c r="E51" s="1" t="s">
+      <c r="H49" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I49" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="9">
+        <v>1</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F51" s="3">
+      <c r="C50" s="3">
         <v>39497</v>
       </c>
-      <c r="G51" s="4" t="s">
+      <c r="D50" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="H51" s="5" t="s">
+      <c r="E50" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="I51" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="J51" s="6" t="s">
+      <c r="F50" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G50" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="K51" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="L51" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B52" s="10"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="9">
-        <v>1</v>
-      </c>
-      <c r="E52" s="1" t="s">
+      <c r="H50" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I50" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="9">
+        <v>1</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F52" s="3">
+      <c r="C51" s="3">
         <v>39498</v>
       </c>
-      <c r="G52" s="4" t="s">
+      <c r="D51" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="H52" s="5" t="s">
+      <c r="E51" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="I52" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="J52" s="6" t="s">
+      <c r="F51" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G51" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="K52" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="L52" s="4">
+      <c r="H51" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I51" s="4">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J3" r:id="rId1"/>
-    <hyperlink ref="J4" r:id="rId2"/>
-    <hyperlink ref="J52" r:id="rId3"/>
-    <hyperlink ref="J51" r:id="rId4"/>
-    <hyperlink ref="J50" r:id="rId5"/>
-    <hyperlink ref="J49" r:id="rId6"/>
-    <hyperlink ref="J48" r:id="rId7"/>
-    <hyperlink ref="J47" r:id="rId8"/>
-    <hyperlink ref="J46" r:id="rId9"/>
-    <hyperlink ref="J45" r:id="rId10"/>
-    <hyperlink ref="J44" r:id="rId11"/>
-    <hyperlink ref="J43" r:id="rId12"/>
-    <hyperlink ref="J42" r:id="rId13"/>
-    <hyperlink ref="J41" r:id="rId14"/>
-    <hyperlink ref="J40" r:id="rId15"/>
-    <hyperlink ref="J39" r:id="rId16"/>
-    <hyperlink ref="J38" r:id="rId17"/>
-    <hyperlink ref="J37" r:id="rId18"/>
-    <hyperlink ref="J36" r:id="rId19"/>
-    <hyperlink ref="J35" r:id="rId20"/>
-    <hyperlink ref="J34" r:id="rId21"/>
-    <hyperlink ref="J33" r:id="rId22"/>
-    <hyperlink ref="J32" r:id="rId23"/>
-    <hyperlink ref="J31" r:id="rId24"/>
-    <hyperlink ref="J30" r:id="rId25"/>
-    <hyperlink ref="J29" r:id="rId26"/>
-    <hyperlink ref="J28" r:id="rId27"/>
-    <hyperlink ref="J27" r:id="rId28"/>
-    <hyperlink ref="J26" r:id="rId29"/>
-    <hyperlink ref="J25" r:id="rId30"/>
-    <hyperlink ref="J24" r:id="rId31"/>
-    <hyperlink ref="J23" r:id="rId32"/>
-    <hyperlink ref="J22" r:id="rId33"/>
-    <hyperlink ref="J21" r:id="rId34"/>
-    <hyperlink ref="J20" r:id="rId35"/>
-    <hyperlink ref="J19" r:id="rId36"/>
-    <hyperlink ref="J18" r:id="rId37"/>
-    <hyperlink ref="J17" r:id="rId38"/>
-    <hyperlink ref="J16" r:id="rId39"/>
-    <hyperlink ref="J15" r:id="rId40"/>
-    <hyperlink ref="J14" r:id="rId41"/>
-    <hyperlink ref="J13" r:id="rId42"/>
-    <hyperlink ref="J12" r:id="rId43"/>
-    <hyperlink ref="J11" r:id="rId44"/>
-    <hyperlink ref="J10" r:id="rId45"/>
-    <hyperlink ref="J9" r:id="rId46"/>
-    <hyperlink ref="J8" r:id="rId47"/>
-    <hyperlink ref="J7" r:id="rId48"/>
-    <hyperlink ref="J6" r:id="rId49"/>
-    <hyperlink ref="J5" r:id="rId50"/>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="G3" r:id="rId2"/>
+    <hyperlink ref="G51" r:id="rId3"/>
+    <hyperlink ref="G50" r:id="rId4"/>
+    <hyperlink ref="G49" r:id="rId5"/>
+    <hyperlink ref="G48" r:id="rId6"/>
+    <hyperlink ref="G47" r:id="rId7"/>
+    <hyperlink ref="G46" r:id="rId8"/>
+    <hyperlink ref="G45" r:id="rId9"/>
+    <hyperlink ref="G44" r:id="rId10"/>
+    <hyperlink ref="G43" r:id="rId11"/>
+    <hyperlink ref="G42" r:id="rId12"/>
+    <hyperlink ref="G41" r:id="rId13"/>
+    <hyperlink ref="G40" r:id="rId14"/>
+    <hyperlink ref="G39" r:id="rId15"/>
+    <hyperlink ref="G38" r:id="rId16"/>
+    <hyperlink ref="G37" r:id="rId17"/>
+    <hyperlink ref="G36" r:id="rId18"/>
+    <hyperlink ref="G35" r:id="rId19"/>
+    <hyperlink ref="G34" r:id="rId20"/>
+    <hyperlink ref="G33" r:id="rId21"/>
+    <hyperlink ref="G32" r:id="rId22"/>
+    <hyperlink ref="G31" r:id="rId23"/>
+    <hyperlink ref="G30" r:id="rId24"/>
+    <hyperlink ref="G29" r:id="rId25"/>
+    <hyperlink ref="G28" r:id="rId26"/>
+    <hyperlink ref="G27" r:id="rId27"/>
+    <hyperlink ref="G26" r:id="rId28"/>
+    <hyperlink ref="G25" r:id="rId29"/>
+    <hyperlink ref="G24" r:id="rId30"/>
+    <hyperlink ref="G23" r:id="rId31"/>
+    <hyperlink ref="G22" r:id="rId32"/>
+    <hyperlink ref="G21" r:id="rId33"/>
+    <hyperlink ref="G20" r:id="rId34"/>
+    <hyperlink ref="G19" r:id="rId35"/>
+    <hyperlink ref="G18" r:id="rId36"/>
+    <hyperlink ref="G17" r:id="rId37"/>
+    <hyperlink ref="G16" r:id="rId38"/>
+    <hyperlink ref="G15" r:id="rId39"/>
+    <hyperlink ref="G14" r:id="rId40"/>
+    <hyperlink ref="G13" r:id="rId41"/>
+    <hyperlink ref="G12" r:id="rId42"/>
+    <hyperlink ref="G11" r:id="rId43"/>
+    <hyperlink ref="G10" r:id="rId44"/>
+    <hyperlink ref="G9" r:id="rId45"/>
+    <hyperlink ref="G8" r:id="rId46"/>
+    <hyperlink ref="G7" r:id="rId47"/>
+    <hyperlink ref="G6" r:id="rId48"/>
+    <hyperlink ref="G5" r:id="rId49"/>
+    <hyperlink ref="G4" r:id="rId50"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId51"/>
